--- a/excel_copies/iso_excel_2023-2024_term2_SYJC.xlsx
+++ b/excel_copies/iso_excel_2023-2024_term2_SYJC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mummy\excel_copies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DFEFF2-1247-47DF-A7BF-1B324981EAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6864696-38C9-4598-A770-C82891B8871C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/excel_copies/iso_excel_2023-2024_term2_SYJC.xlsx
+++ b/excel_copies/iso_excel_2023-2024_term2_SYJC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mummy\excel_copies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6864696-38C9-4598-A770-C82891B8871C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2719927-D673-48D8-B18C-099FEE007AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
